--- a/results/results_final.xlsx
+++ b/results/results_final.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholamerkel/Desktop/NGC/sentiment analysis/v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholamerkel/Library/Containers/com.microsoft.Excel/Data/Desktop/NGC/sentiment analysis/v1/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{197997C8-27D3-8E46-BC22-15D5310DDC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3675C4-6799-9E43-AEB6-0A1AE29427A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AAA20886-517D-9948-90C1-A0937988F125}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{AAA20886-517D-9948-90C1-A0937988F125}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>tweet</t>
   </si>
@@ -56,12 +56,6 @@
     <t>predict. party</t>
   </si>
   <si>
-    <t>@realDonaldTrump</t>
-  </si>
-  <si>
-    <t> 0.61652</t>
-  </si>
-  <si>
     <t>correct?</t>
   </si>
   <si>
@@ -83,13 +77,6 @@
     <t>https://twitter.com/BernieSanders/status/1241086398960226307</t>
   </si>
   <si>
-    <t>"We have to make a choice. What kind of nation do we want to be?
-Do we want to work together to tackle the problems facing this country, or be one where nothing fundamentally changes for the people with power who make huge amounts of money on greed and corruption?"</t>
-  </si>
-  <si>
-    <t>https://twitter.com/BernieSanders/status/1239601848249655297</t>
-  </si>
-  <si>
     <t>https://twitter.com/BernieSanders/status/1239360515937271809</t>
   </si>
   <si>
@@ -135,49 +122,12 @@
     <t>https://twitter.com/CHSommers/status/1245397912378642442</t>
   </si>
   <si>
-    <t>@YAF / RT '@BenShapiro</t>
-  </si>
-  <si>
-    <t>https://twitter.com/yaf/status/1243221176966467584</t>
-  </si>
-  <si>
-    <t>"Lying to people about gender DOES NOT do them any favors. @benshapiro has the facts about the Left's ideological lies. @realDailyWire"</t>
-  </si>
-  <si>
     <t>https://twitter.com/benshapiro/status/1242152881022623744</t>
   </si>
   <si>
     <t xml:space="preserve"> -- irony</t>
   </si>
   <si>
-    <t>"Idaho has become the first state in the U.S. to bar transgender girls from participating in girls’ and women’s sports.
-The law includes a provision that allows for anyone to file a claim questioning the sex of an athlete."</t>
-  </si>
-  <si>
-    <t>https://twitter.com/tminsberg/status/1245449670245208068</t>
-  </si>
-  <si>
-    <t>@tminsberg / RT '@nytimes</t>
-  </si>
-  <si>
-    <t>"President Jair Bolsonaro has galvanized gun culture in Brazil. He and his sons have helped fuel a gun rights movement that had little popular support, or political clout, in the country before he took office."</t>
-  </si>
-  <si>
-    <t>https://twitter.com/nytimes/status/1245330097281871875</t>
-  </si>
-  <si>
-    <t>@nytimes</t>
-  </si>
-  <si>
-    <t>"Many people who moved to the U.S. have abandoned the lives they had built over fear that the inequalities of the American health care system, exacerbated by the rampaging virus, would leave them vulnerable"</t>
-  </si>
-  <si>
-    <t>https://twitter.com/nytimes/status/1245327606460944384</t>
-  </si>
-  <si>
-    <t>-- from before</t>
-  </si>
-  <si>
     <t>@NewtGingrich</t>
   </si>
   <si>
@@ -199,9 +149,6 @@
     <t>lgbtqia</t>
   </si>
   <si>
-    <t>anti corporations</t>
-  </si>
-  <si>
     <t xml:space="preserve">immigration </t>
   </si>
   <si>
@@ -217,9 +164,6 @@
     <t>corruption / foreign</t>
   </si>
   <si>
-    <t>gun rights</t>
-  </si>
-  <si>
     <t>health care</t>
   </si>
   <si>
@@ -229,9 +173,6 @@
     <t>feminism</t>
   </si>
   <si>
-    <t>prob not.</t>
-  </si>
-  <si>
     <t>impeachment</t>
   </si>
   <si>
@@ -256,24 +197,6 @@
     <t>https://twitter.com/benshapiro/status/1129038284162834432</t>
   </si>
   <si>
-    <t>"Abortion clinics in Texas can keep operating, a federal judge ruled on Monday, a week after the state’s attorney general said abortion was among the nonessential medical procedures that had to be delayed because of the coronavirus"</t>
-  </si>
-  <si>
-    <t>https://twitter.com/nytimes/status/1244811676995723264</t>
-  </si>
-  <si>
-    <t>"Americans bought about two million guns in March. It was the second-busiest month ever for gun sales, trailing only January 2013, just after President Barack Obama’s re-election and the mass shooting at Sandy Hook Elementary School."</t>
-  </si>
-  <si>
-    <t>https://twitter.com/nytimes/status/1245565387917463557</t>
-  </si>
-  <si>
-    <t>Fox News</t>
-  </si>
-  <si>
-    <t>https://www.foxnews.com/politics/after-mocking-trump-promoting-hydroxychloroquine-media-acknowleges-might-treat-coronavirus</t>
-  </si>
-  <si>
     <t>FDA Relaxes ‘Blood Ban’ For Gay Men, But LGBTQ Advocates Want Bigger Change</t>
   </si>
   <si>
@@ -374,9 +297,6 @@
   </si>
   <si>
     <t>National Security in the Time of Pandemic</t>
-  </si>
-  <si>
-    <t>Amazing how the Fake News never covers this. No Interest on Student Loans. The Dems are just talk!</t>
   </si>
   <si>
     <t>Transgender people everywhere deserve to live in dignity and security. Together, we will end hatred and bigotry towards trans Americans and build a nation based on love, justice and civil rights. #TransDayOfVisibility</t>
@@ -449,9 +369,6 @@
     <t>Want to kill a robust economy? Then, raise taxes on companies and the middle class. We know this is what Democrats would do, because they have all said it.</t>
   </si>
   <si>
-    <t>After mocking Trump for promoting hydroxychloroquine, journalists acknowledge it might treat coronavirus</t>
-  </si>
-  <si>
     <t>https://spectator.org/the-impeachment-that-killed-americans/</t>
   </si>
   <si>
@@ -470,31 +387,10 @@
     <t xml:space="preserve">bernie </t>
   </si>
   <si>
-    <t>Americans bought about two million guns in March. It was the second-busiest month ever for gun sales, trailing only January 2013, just after President Barack Obama’s re-election and the mass shooting at Sandy Hook Elementary School.</t>
-  </si>
-  <si>
-    <t>Many people who moved to the U.S. have abandoned the lives they had built over fear that the inequalities of the American health care system, exacerbated by the rampaging virus, would leave them vulnerable</t>
-  </si>
-  <si>
-    <t>student loans / fake news</t>
-  </si>
-  <si>
-    <t>trump / covid</t>
-  </si>
-  <si>
-    <t>https://twitter.com/realDonaldTrump/status/1239201055315025920</t>
-  </si>
-  <si>
-    <t>-------------------------------------</t>
-  </si>
-  <si>
     <t>democrat</t>
   </si>
   <si>
     <t>republican</t>
-  </si>
-  <si>
-    <t>misc.</t>
   </si>
   <si>
     <t xml:space="preserve">accuracy: </t>
@@ -628,17 +524,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -966,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD8233F-21A5-244D-B99F-F68A116D6A97}">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,43 +898,43 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="A2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -1047,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7">
         <v>0.84060000000000001</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="7">
         <v>0</v>
       </c>
@@ -1073,24 +969,24 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="7">
         <v>0.88368999999999998</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -1099,24 +995,24 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6">
         <v>0.84621999999999997</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -1125,24 +1021,24 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="7">
         <v>0.88926000000000005</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -1151,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
         <v>0.87773999999999996</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1167,13 +1063,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -1182,24 +1078,24 @@
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1">
         <v>0.88822999999999996</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
@@ -1208,24 +1104,24 @@
         <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
         <v>0.87841000000000002</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
@@ -1234,24 +1130,24 @@
         <v>0</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1">
         <v>0.72587999999999997</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
@@ -1260,24 +1156,24 @@
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1">
         <v>0.88588</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -1286,40 +1182,40 @@
         <v>0</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1">
         <v>0.88868999999999998</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="A15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
@@ -1328,24 +1224,24 @@
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1">
         <v>0.83638999999999997</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -1354,24 +1250,24 @@
         <v>0</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1">
         <v>0.75995000000000001</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -1380,24 +1276,24 @@
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1">
         <v>0.78810000000000002</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -1406,24 +1302,24 @@
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19" s="1">
         <v>0.73816999999999999</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -1432,27 +1328,27 @@
         <v>0</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1">
         <v>0.86141000000000001</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
@@ -1461,27 +1357,27 @@
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1">
         <v>0.88493999999999995</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -1490,24 +1386,24 @@
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1">
         <v>0.83382999999999996</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
@@ -1516,27 +1412,27 @@
         <v>0</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G24" s="1">
         <v>0.86458000000000002</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -1545,24 +1441,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1">
         <v>0.67410999999999999</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
@@ -1571,16 +1467,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1">
         <v>0.88976999999999995</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1589,83 +1485,84 @@
       <c r="G27" s="1"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.83076000000000005</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>145</v>
-      </c>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>7</v>
+      <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="D30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.72858999999999996</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.83786000000000005</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>142</v>
+      <c r="A32" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
@@ -1674,614 +1571,343 @@
         <v>0</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32" s="1">
-        <v>0.89520999999999995</v>
+        <v>0.52759</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>143</v>
+      <c r="A33" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="7">
         <v>0</v>
       </c>
       <c r="E33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G33" s="1">
-        <v>0.86417999999999995</v>
+        <v>0.78152999999999995</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.68523000000000001</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.80103999999999997</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="3"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1">
-        <v>0.72858999999999996</v>
+        <v>0.80440999999999996</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="7">
         <v>1</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G38" s="1">
-        <v>0.83786000000000005</v>
+        <v>0.59680999999999995</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.83360999999999996</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.51622000000000001</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.52759</v>
-      </c>
-      <c r="H39" s="6" t="s">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.78152999999999995</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G41" s="1">
-        <v>0.68523000000000001</v>
+        <v>0.54325000000000001</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>81</v>
+      <c r="A42" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1">
-        <v>0.80103999999999997</v>
+        <v>0.83704999999999996</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="3"/>
-      <c r="G43" s="1"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.80440999999999996</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>71</v>
+      <c r="E44" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="16">
+        <f>COUNTIF(F3:F14, "Y")+COUNTIF(F16:F27, "Y")+COUNTIF(F30:F42, "Y")</f>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.59680999999999995</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>95</v>
+      <c r="E45" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="16">
+        <f>COUNTIF(F3:F14, "N")+COUNTIF(F16:F27, "N")+COUNTIF(F30:F42, "N")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="7">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.83360999999999996</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>62</v>
+      <c r="E46" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="16">
+        <f>F44+F45</f>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.51622000000000001</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.54325000000000001</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7">
-        <v>1</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.83704999999999996</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E51" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="18">
-        <f>COUNTIF(F3:F14, "Y")+COUNTIF(F16:F27, "Y")+COUNTIF(F29:F35, "Y")+COUNTIF(F37:F49, "Y")</f>
-        <v>29</v>
+      <c r="E47" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="16">
+        <f>F44/F46</f>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E52" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="18">
-        <f>COUNTIF(F3:F14, "N")+COUNTIF(F16:F27, "N")+COUNTIF(F29:F35, "N")+COUNTIF(F37:F49, "N")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E53" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F53" s="18">
-        <f>F51+F52</f>
-        <v>36</v>
-      </c>
+      <c r="A52" s="9"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E54" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="18">
-        <f>F51/F53</f>
-        <v>0.80555555555555558</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="9"/>
+      <c r="C56" s="3"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="9"/>
+      <c r="C57" s="3"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
-        <v>147</v>
-      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="3"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="8">
-        <v>1</v>
-      </c>
-      <c r="E61" s="8">
-        <v>1</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2">
-        <v>0.83726999999999996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="7">
-        <v>0</v>
-      </c>
-      <c r="E63" s="7">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.85614000000000001</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0</v>
-      </c>
-      <c r="E64" s="7">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="1">
-        <v>0.87373000000000001</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="7">
-        <v>0</v>
-      </c>
-      <c r="E65" s="7">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.86417999999999995</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="7">
-        <v>0</v>
-      </c>
-      <c r="E66" s="7">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="1">
-        <v>0.85629</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="7">
-        <v>0</v>
-      </c>
-      <c r="E67" s="7">
-        <v>0</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="1">
-        <v>0.89520999999999995</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="7">
-        <v>0</v>
-      </c>
-      <c r="E69" s="7">
-        <v>0</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="13">
-        <v>0.84560000000000002</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="3"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="13"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="14"/>
+      <c r="G62" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -2293,45 +1919,34 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{C1C5D555-3A16-BC44-B019-542935300B0C}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{FEDC58F2-53D5-F944-A055-6ABA90B100E9}"/>
     <hyperlink ref="C6" r:id="rId4" xr:uid="{22F4E6EB-585C-5A46-8030-4FE0292A318E}"/>
-    <hyperlink ref="C69" r:id="rId5" xr:uid="{72EB1E8F-AC14-CF4B-BD6C-3CA908772CBB}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{1A33EE64-63C2-9D45-8490-034C258199A0}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{12DE1F3D-3363-B141-AB53-989D318811A9}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{69F1A3F8-6C69-1C4A-9496-BC9F9801B60B}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{9ECE799E-D00B-9D48-990F-CE8F9F237051}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{9EA9474E-E8AD-A543-B947-30415F714696}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{117F59C9-57F0-E44C-8A95-81687DA81AF2}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{788482FB-BD07-7948-AD69-E2925D0F6151}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{B1F26406-9FA2-A344-93A8-234447E837A1}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{96CEF607-D65B-FD49-8650-FB2C57975286}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{F1E5996F-3A1C-EC4C-BCCF-616183293A7F}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{C0B338AD-868B-7643-B1F1-09CFAC87A836}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{9E3BF57C-AB64-9F48-9A93-E926E5DDE982}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{B1C97155-1DEB-EB40-AE1E-FA233A7CCAD4}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{8A8846F8-0686-4B41-BAE9-5934624B68B5}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{99544217-509D-A549-8B08-0D188EA5AAC0}"/>
-    <hyperlink ref="C19" r:id="rId21" xr:uid="{6A0269DA-B6B8-B049-8C89-C9DD54BDB6DB}"/>
-    <hyperlink ref="C66" r:id="rId22" xr:uid="{B23CC551-2376-C044-9FC0-D24780F8529A}"/>
-    <hyperlink ref="C67" r:id="rId23" xr:uid="{0689D0D2-6F80-0E4F-A8AB-C085DDC1A0F7}"/>
-    <hyperlink ref="C29" r:id="rId24" xr:uid="{3A8E4D19-E742-384C-9991-A63F3EC43B91}"/>
-    <hyperlink ref="C37" r:id="rId25" xr:uid="{27A71E1F-30D2-B144-B235-687033D53475}"/>
-    <hyperlink ref="C38" r:id="rId26" xr:uid="{646246A5-286E-B040-B275-31E8663DF6D5}"/>
-    <hyperlink ref="C39" r:id="rId27" xr:uid="{3286FC2D-D012-F944-B964-A88946393466}"/>
-    <hyperlink ref="C40" r:id="rId28" xr:uid="{356E9325-AFBE-AD4C-93E6-4B89FD384E07}"/>
-    <hyperlink ref="C41" r:id="rId29" xr:uid="{BFAE5F3F-EB57-5E49-8C0A-40FB015AFCA6}"/>
-    <hyperlink ref="C42" r:id="rId30" xr:uid="{83605623-581E-8F4F-BE25-34B4BAF53511}"/>
-    <hyperlink ref="C44" r:id="rId31" xr:uid="{EF71EBD9-F9D8-C74B-9A28-DB14B0B30CC4}"/>
-    <hyperlink ref="C45" r:id="rId32" xr:uid="{F1B781BF-AED7-6E4F-8130-229F7DB234D7}"/>
-    <hyperlink ref="C46" r:id="rId33" xr:uid="{5663F2B5-E311-B643-9187-3D3423A1B5D9}"/>
-    <hyperlink ref="C47" r:id="rId34" xr:uid="{BC9834D4-B085-6446-9549-A0EA60AD7BC7}"/>
-    <hyperlink ref="C48" r:id="rId35" xr:uid="{9572F3DB-A6B6-5D41-914D-F9ECBA8A43F4}"/>
-    <hyperlink ref="C49" r:id="rId36" xr:uid="{FF71D719-ACBC-BC48-9944-A2A69C9BBA8D}"/>
-    <hyperlink ref="C32" r:id="rId37" xr:uid="{BF73787D-026C-8849-AABB-AFD6BA8FB1E0}"/>
-    <hyperlink ref="C65" r:id="rId38" xr:uid="{44A8C8C6-C02B-E84C-BAEB-B2AE8D07AE6C}"/>
-    <hyperlink ref="C33" r:id="rId39" xr:uid="{AED41B80-D47A-FD47-AC60-C7B57D30D848}"/>
-    <hyperlink ref="C64" r:id="rId40" xr:uid="{5C34EBCA-6C5F-A04C-9308-410B03C2CE43}"/>
-    <hyperlink ref="C30" r:id="rId41" xr:uid="{BBC4EDA4-B8C2-1A4E-A318-2A7C064954CC}"/>
-    <hyperlink ref="C63" r:id="rId42" xr:uid="{8A3A438B-69AF-AD48-9B84-B2C2D4B25EB9}"/>
-    <hyperlink ref="C61" r:id="rId43" xr:uid="{C38C4C77-7D50-DD46-918C-B7FE3F8F1CD5}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{1A33EE64-63C2-9D45-8490-034C258199A0}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{12DE1F3D-3363-B141-AB53-989D318811A9}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{69F1A3F8-6C69-1C4A-9496-BC9F9801B60B}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{9ECE799E-D00B-9D48-990F-CE8F9F237051}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{9EA9474E-E8AD-A543-B947-30415F714696}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{117F59C9-57F0-E44C-8A95-81687DA81AF2}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{788482FB-BD07-7948-AD69-E2925D0F6151}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{B1F26406-9FA2-A344-93A8-234447E837A1}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{96CEF607-D65B-FD49-8650-FB2C57975286}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{F1E5996F-3A1C-EC4C-BCCF-616183293A7F}"/>
+    <hyperlink ref="C22" r:id="rId15" xr:uid="{C0B338AD-868B-7643-B1F1-09CFAC87A836}"/>
+    <hyperlink ref="C23" r:id="rId16" xr:uid="{9E3BF57C-AB64-9F48-9A93-E926E5DDE982}"/>
+    <hyperlink ref="C24" r:id="rId17" xr:uid="{B1C97155-1DEB-EB40-AE1E-FA233A7CCAD4}"/>
+    <hyperlink ref="C25" r:id="rId18" xr:uid="{8A8846F8-0686-4B41-BAE9-5934624B68B5}"/>
+    <hyperlink ref="C26" r:id="rId19" xr:uid="{99544217-509D-A549-8B08-0D188EA5AAC0}"/>
+    <hyperlink ref="C19" r:id="rId20" xr:uid="{6A0269DA-B6B8-B049-8C89-C9DD54BDB6DB}"/>
+    <hyperlink ref="C30" r:id="rId21" xr:uid="{27A71E1F-30D2-B144-B235-687033D53475}"/>
+    <hyperlink ref="C31" r:id="rId22" xr:uid="{646246A5-286E-B040-B275-31E8663DF6D5}"/>
+    <hyperlink ref="C32" r:id="rId23" xr:uid="{3286FC2D-D012-F944-B964-A88946393466}"/>
+    <hyperlink ref="C33" r:id="rId24" xr:uid="{356E9325-AFBE-AD4C-93E6-4B89FD384E07}"/>
+    <hyperlink ref="C34" r:id="rId25" xr:uid="{BFAE5F3F-EB57-5E49-8C0A-40FB015AFCA6}"/>
+    <hyperlink ref="C35" r:id="rId26" xr:uid="{83605623-581E-8F4F-BE25-34B4BAF53511}"/>
+    <hyperlink ref="C37" r:id="rId27" xr:uid="{EF71EBD9-F9D8-C74B-9A28-DB14B0B30CC4}"/>
+    <hyperlink ref="C38" r:id="rId28" xr:uid="{F1B781BF-AED7-6E4F-8130-229F7DB234D7}"/>
+    <hyperlink ref="C39" r:id="rId29" xr:uid="{5663F2B5-E311-B643-9187-3D3423A1B5D9}"/>
+    <hyperlink ref="C40" r:id="rId30" xr:uid="{BC9834D4-B085-6446-9549-A0EA60AD7BC7}"/>
+    <hyperlink ref="C41" r:id="rId31" xr:uid="{9572F3DB-A6B6-5D41-914D-F9ECBA8A43F4}"/>
+    <hyperlink ref="C42" r:id="rId32" xr:uid="{FF71D719-ACBC-BC48-9944-A2A69C9BBA8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
